--- a/book1.xlsx
+++ b/book1.xlsx
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t xml:space="preserve">Baker Street, Marylebone, City of Westminster, London, Greater London, England, NW1 6XE, UK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.5242146,0.87654</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t xml:space="preserve">TfL Office, 208-216, Baker Street, Marylebone, City of Westminster, London, Greater London, England, NW1 5RT, UK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.523210, -0.157847</t>
   </si>
   <si>
     <t xml:space="preserve">4, Богатырский проспект, Комендантский аэродром, округ Комендантский аэродром, Приморский район, Санкт-Петербург, Северо-Западный федеральный округ, 190000, РФ</t>
@@ -44,6 +44,12 @@
   </si>
   <si>
     <t xml:space="preserve">55.7420117, 52.3992173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Монумент Астана-Байтерек, 14, Nurzhol Boulevard, Заречный, Нур-Султан, район Есиль, Нур-Султан, 010000, Казахстан</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.12827785, 71.430515</t>
   </si>
 </sst>
 </file>
@@ -144,21 +150,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="161.081632653061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.0204081632653"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="158.34693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.6683673469388"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -187,6 +193,14 @@
       </c>
       <c r="B4" s="1" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/book1.xlsx
+++ b/book1.xlsx
@@ -20,7 +20,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+  <si>
+    <t xml:space="preserve">Заречный, Нур-Султан, район  Есиль, Нур-Султан, 010000, Казахстан</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.12827785, 71.430515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4, Богатырский проспект, Комендантский аэродром, округ Комендантский аэродром, Приморский район, Санкт-Петербург, Северо-Западный федеральный округ, 190000, РФ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59.9992052, 30.2891141</t>
+  </si>
   <si>
     <t xml:space="preserve">TfL Office, 208-216, Baker Street, Marylebone, City of Westminster, London, Greater London, England, NW1 5RT, UK</t>
   </si>
@@ -28,28 +40,19 @@
     <t xml:space="preserve">51.523210, -0.157847</t>
   </si>
   <si>
-    <t xml:space="preserve">4, Богатырский проспект, Комендантский аэродром, округ Комендантский аэродром, Приморский район, Санкт-Петербург, Северо-Западный федеральный округ, 190000, РФ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59.9992052, 30.2891141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Дворцовая площадь, Дворцовый округ, Центральный район, Санкт-Петербург, Северо-Западный федеральный округ, 191186, РФ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59.938732, 30.316229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Мэрия, 15/04, проспект Хасана Туфана, Новый город, Центральный район, Набережные Челны, городской округ Набережные Челны, Татарстан, Приволжский федеральный округ, 423805, РФ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55.7420117, 52.3992173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Монумент Астана-Байтерек, 14, Nurzhol Boulevard, Заречный, Нур-Султан, район Есиль, Нур-Султан, 010000, Казахстан</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.12827785, 71.430515</t>
+    <t xml:space="preserve">esrtdnjm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ывап</t>
+  </si>
+  <si>
+    <t xml:space="preserve">?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">½</t>
   </si>
 </sst>
 </file>
@@ -150,16 +153,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="158.34693877551"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.6683673469388"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="117.84693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.4081632653061"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
@@ -180,7 +183,7 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -188,19 +191,32 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="B4" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="1" t="s">
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+      <c r="B5" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="1" t="s">
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>51.12827785</v>
+      </c>
+      <c r="B6" s="0" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>3546575</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
